--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinnu Lalu\IdeaProjects\seleniumbasics\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95031808-8A03-4BFD-8F80-782D09C7E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8988406-9F2F-47C8-BD00-A6A7608FDA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A234D179-97FA-49DB-9F55-3CC3695C89A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>HomePage</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
+    <t>chinnu.obsqura@gmail.com</t>
+  </si>
+  <si>
+    <t>chinnu123</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CD78F7-A026-40E4-8E71-D77F655083FD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -501,9 +507,18 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{F6E22833-96A2-4B2A-98E0-697F4D57332C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D5DEB386-A528-4E9C-925A-F180358CCDD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
